--- a/Energy/Automatic lights/automatic_lights_master.xlsx
+++ b/Energy/Automatic lights/automatic_lights_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Components</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>NO to bulb</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>To check the working of the sensor, upload code001.</t>
+  </si>
+  <si>
+    <t>Upload code002.</t>
+  </si>
+  <si>
+    <t>Code002</t>
   </si>
 </sst>
 </file>
@@ -792,10 +804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,70 +866,93 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>